--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2073913.055310788</v>
+        <v>2181142.496708874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9699333.681794265</v>
+        <v>9712782.127173908</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>344.0004274136894</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>133.8381454408834</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4417732040092</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>196.1531030376584</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.6691646375076</v>
+        <v>84.77350972403106</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734084892</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>59.42234841526805</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>117.831578851723</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>168.1158122680975</v>
+        <v>63.92731930591311</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>105.0920173913903</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>32.11808456245934</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784717</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>135.4684761590123</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922734</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>105.6507867899583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="G16" t="n">
-        <v>163.3736250957665</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2138,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C22" t="n">
-        <v>103.8784673763403</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2250,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>55.02344404120736</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>95.25381996636069</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2846,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>37.40501058442996</v>
+        <v>140.4383865840203</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3080,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>34.21058558914873</v>
       </c>
       <c r="F34" t="n">
-        <v>45.66054613217656</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,13 +3432,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>86.09789039964409</v>
+        <v>164.9367233701397</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,10 +3483,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161913524</v>
       </c>
       <c r="G40" t="n">
-        <v>60.78102717027874</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>134.4555615353795</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>166.6594061764988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>70.58974991479215</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>35.88641949135634</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1677.574522601424</v>
+        <v>1465.28938929556</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>1465.28938929556</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>1465.28938929556</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>1079.501136697316</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>668.5152319077081</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>252.8104816319969</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>2064.174362665546</v>
+        <v>1855.428721271372</v>
       </c>
       <c r="Y2" t="n">
-        <v>2064.174362665546</v>
+        <v>1465.28938929556</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>870.3292415458924</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505113</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.7770143030104</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8408313751036</v>
+        <v>770.8338829770711</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4509,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4522,16 +4524,16 @@
         <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544054</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>884.4150300312675</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>656.4254791332502</v>
+        <v>1109.244414851924</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.4254791332502</v>
+        <v>888.4518357083936</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067215</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410101</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X5" t="n">
-        <v>2588.318918149021</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131337</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>114.5432626034352</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>299.2648838844851</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>593.9684409159568</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>957.2304598751767</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>423.5412774992659</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="C7" t="n">
-        <v>423.5412774992659</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="D7" t="n">
-        <v>273.4246380869301</v>
+        <v>621.7403896492181</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783661</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577774</v>
+        <v>1320.795575414436</v>
       </c>
       <c r="W7" t="n">
-        <v>872.3234075408134</v>
+        <v>1031.378405377475</v>
       </c>
       <c r="X7" t="n">
-        <v>644.333856642796</v>
+        <v>803.3888544794578</v>
       </c>
       <c r="Y7" t="n">
-        <v>423.5412774992659</v>
+        <v>803.3888544794578</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308158</v>
+        <v>1008.884140601386</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1008.884140601386</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760996</v>
+        <v>1008.884140601386</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.384423162752</v>
+        <v>1008.884140601386</v>
       </c>
       <c r="F8" t="n">
-        <v>651.398518373144</v>
+        <v>597.8982358117785</v>
       </c>
       <c r="G8" t="n">
-        <v>236.3260682181405</v>
+        <v>182.1934855360673</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2100.012626270158</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348092</v>
+        <v>1395.483980665508</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.00073137228</v>
+        <v>1395.483980665508</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1675.63996629486</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2238.100841080694</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>584.5841306576258</v>
+        <v>620.8411572468201</v>
       </c>
       <c r="C10" t="n">
-        <v>584.5841306576258</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D10" t="n">
-        <v>584.5841306576258</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>584.5841306576258</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>437.6941831597154</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>269.9913465344343</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1604.003610415447</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1381.025129610183</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1091.90679211402</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1091.90679211402</v>
       </c>
       <c r="W10" t="n">
-        <v>812.5736815556431</v>
+        <v>802.4896220770598</v>
       </c>
       <c r="X10" t="n">
-        <v>584.5841306576258</v>
+        <v>802.4896220770598</v>
       </c>
       <c r="Y10" t="n">
-        <v>584.5841306576258</v>
+        <v>802.4896220770598</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191927</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349518</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349518</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989559</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228846</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>631.7012443408952</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408952</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408952</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429848</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832664</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191927</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969296</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969296</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6918836312003</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7557007032934</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>482.6390612909577</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>482.6390612909577</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6390612909577</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235166</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258107</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602305</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396418</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359457</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>983.34034846144</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.34034846144</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,37 +5530,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756267</v>
+        <v>2233.355914590557</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560535</v>
+        <v>2567.280686761778</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718124</v>
+        <v>3062.606292977537</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>3369.710724020923</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>3997.30868757553</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070598</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.19349744548</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5838,19 +5840,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C22" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5975,10 +5977,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5989,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>716.6687843969308</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1053.171308869725</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>884.2351259418183</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>734.1184865294825</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>586.2053929470894</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>439.315445449179</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>272.119346164059</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.612352843495</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1234.819773699965</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>658.9255961109956</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9894131830887</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830887</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2342.134540858491</v>
+        <v>2238.060423687188</v>
       </c>
       <c r="T31" t="n">
-        <v>2122.533075881433</v>
+        <v>2018.458958710129</v>
       </c>
       <c r="U31" t="n">
-        <v>1833.45784922563</v>
+        <v>1729.383732054327</v>
       </c>
       <c r="V31" t="n">
-        <v>1578.773361019743</v>
+        <v>1474.69924384844</v>
       </c>
       <c r="W31" t="n">
-        <v>1289.356190982783</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="X31" t="n">
-        <v>1061.366640084765</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y31" t="n">
-        <v>840.5740609412353</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,13 +6721,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3262.308695856986</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>3093.372512929079</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>2943.255873516744</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>2795.34277993435</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="F37" t="n">
-        <v>2648.45283243644</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421536</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765734</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>4182.156460765734</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3892.739290728773</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>3664.749739830756</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>3443.957160687226</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C40" t="n">
-        <v>741.8431516380886</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D40" t="n">
-        <v>591.7265122257528</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E40" t="n">
-        <v>443.8134186433597</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="F40" t="n">
-        <v>296.9234711454493</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7497,19 +7499,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.927936255316</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1265.358531127103</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>1037.368980229086</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.5764010855557</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7722,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.1522880254209</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>493.2161050975141</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>2125.759767795858</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.684541140056</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.000052934169</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>1292.582882897208</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.593331999191</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.8007528556607</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8060,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>280.1079373569283</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.9556134883069305</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8547,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>186.4490126143854</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10823,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>-1.077743684667804e-12</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23416,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>31.77834493961549</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>180.5336875992859</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>85.9810369877376</v>
       </c>
       <c r="G16" t="n">
-        <v>2.150513196502345</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C22" t="n">
-        <v>63.36835372228754</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>45.04089287986319</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>143.6212754172146</v>
+        <v>40.58789941762424</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="F34" t="n">
-        <v>99.76050189075468</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>79.42624789262476</v>
+        <v>0.5874149221291134</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
       <c r="G40" t="n">
-        <v>104.7431111219901</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>32.79125956324833</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25843,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>250.2980548978878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>848887.1416910385</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>848887.1416910385</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.592262404</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516047</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
@@ -26347,13 +26349,13 @@
         <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="O2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26368,13 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121053</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26392,16 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605439</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551212</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808339</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731918</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731918</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
@@ -26451,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.31242673194</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746752.2731260229</v>
+        <v>-746752.2731260231</v>
       </c>
       <c r="C6" t="n">
-        <v>196578.2537800235</v>
+        <v>367999.5104498967</v>
       </c>
       <c r="D6" t="n">
-        <v>400016.9953921289</v>
+        <v>367999.5104498962</v>
       </c>
       <c r="E6" t="n">
-        <v>150528.9807172592</v>
+        <v>-31543.99909993084</v>
       </c>
       <c r="F6" t="n">
         <v>475941.4425246152</v>
       </c>
       <c r="G6" t="n">
-        <v>475941.4425246153</v>
+        <v>475941.4425246152</v>
       </c>
       <c r="H6" t="n">
-        <v>475941.4425246158</v>
+        <v>475941.4425246157</v>
       </c>
       <c r="I6" t="n">
-        <v>475941.4425246153</v>
+        <v>475941.4425246154</v>
       </c>
       <c r="J6" t="n">
-        <v>308336.2647146329</v>
+        <v>308336.2647146326</v>
       </c>
       <c r="K6" t="n">
-        <v>426831.3498185608</v>
+        <v>475941.4425246154</v>
       </c>
       <c r="L6" t="n">
         <v>475941.4425246153</v>
       </c>
       <c r="M6" t="n">
-        <v>390886.414589103</v>
+        <v>343334.1487956884</v>
       </c>
       <c r="N6" t="n">
+        <v>475941.4425246152</v>
+      </c>
+      <c r="O6" t="n">
         <v>475941.4425246154</v>
       </c>
-      <c r="O6" t="n">
-        <v>475941.4425246155</v>
-      </c>
       <c r="P6" t="n">
-        <v>475941.4425246155</v>
+        <v>475941.4425246153</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26822,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757585</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973569</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022536</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>21.2724643573182</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>167.180407121522</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>63.39020697792806</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>90.36989529893256</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,19 +27618,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>173.568774018546</v>
+        <v>301.4644289320225</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>87.01161423130112</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>134.306064472105</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>126.491952119223</v>
+        <v>237.0912332564923</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>39.66299752293048</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>162.5443757992782</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28260,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-4.524736141320318e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28579,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28858,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -31045,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>353.393490704276</v>
+        <v>307.4654529393634</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422588</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>430.4001870301135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>697.0074482175629</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485292</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>351.1157147121638</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>452.3405299254388</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>616.5397119226058</v>
+        <v>506.5895320981981</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33037,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P30" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33497,13 +33499,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33664,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175688</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
@@ -33758,7 +33760,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N39" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>210.3948924365567</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>616.375287159485</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>577.7882979947786</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750467</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>63.93583437922432</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>302.9297349452399</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>219.4190832899457</v>
+        <v>173.4910455250332</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678998</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>291.8458072502393</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>565.6657361342296</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625077</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2742757378049</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36121,7 +36123,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36206,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36364,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>477.9853321427316</v>
+        <v>368.0351523183239</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P30" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L36" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37406,7 +37408,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N39" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>68.26085851453838</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>473.7790427150405</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181142.496708874</v>
+        <v>2177005.339458724</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9712782.127173908</v>
+        <v>9712782.127173906</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>86.35122807753879</v>
       </c>
       <c r="H2" t="n">
-        <v>133.8381454408834</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>116.4417732040092</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>107.4818824220701</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>213.8982318503556</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>84.77350972403106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>117.831578851723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>233.8447291789209</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>63.92731930591311</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>32.11808456245934</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>135.4684761590123</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922734</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,16 +1584,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>220.8645017249729</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>59.44001103519365</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.44013021076719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>136.5667167289874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>95.25381996636069</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>117.6579322793575</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>140.4383865840203</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>34.21058558914873</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>176.7621441121407</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9367233701397</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>266.332185492455</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8253826161913524</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>27.77749086859546</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>134.4555615353795</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>35.88641949135634</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.28938929556</v>
+        <v>1324.805867331309</v>
       </c>
       <c r="C2" t="n">
-        <v>1465.28938929556</v>
+        <v>955.8433503908975</v>
       </c>
       <c r="D2" t="n">
-        <v>1465.28938929556</v>
+        <v>597.5776517841471</v>
       </c>
       <c r="E2" t="n">
-        <v>1079.501136697316</v>
+        <v>211.7893991859028</v>
       </c>
       <c r="F2" t="n">
-        <v>668.5152319077081</v>
+        <v>204.8438984366994</v>
       </c>
       <c r="G2" t="n">
-        <v>252.8104816319969</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.428721271372</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.28938929556</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>870.3292415458924</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505113</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.8338829770711</v>
+        <v>751.3310369968228</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>582.3948540689159</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4485,55 +4485,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>1109.244414851924</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y4" t="n">
-        <v>888.4518357083936</v>
+        <v>932.9795018270626</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>798.5551253258054</v>
+        <v>1113.627677512998</v>
       </c>
       <c r="C5" t="n">
-        <v>798.5551253258054</v>
+        <v>744.6651605725865</v>
       </c>
       <c r="D5" t="n">
-        <v>440.2894267190549</v>
+        <v>744.6651605725865</v>
       </c>
       <c r="E5" t="n">
-        <v>440.2894267190549</v>
+        <v>744.6651605725865</v>
       </c>
       <c r="F5" t="n">
-        <v>433.3439259698515</v>
+        <v>333.6792557829789</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4597,22 +4597,22 @@
         <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="Y5" t="n">
-        <v>1185.154965389927</v>
+        <v>1500.22751757712</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,10 +4634,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4646,22 +4646,22 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034352</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844851</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159568</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751767</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>621.7403896492181</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C7" t="n">
-        <v>621.7403896492181</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1320.795575414436</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1031.378405377475</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X7" t="n">
-        <v>803.3888544794578</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y7" t="n">
-        <v>803.3888544794578</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1008.884140601386</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C8" t="n">
-        <v>1008.884140601386</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D8" t="n">
-        <v>1008.884140601386</v>
+        <v>684.9061825519796</v>
       </c>
       <c r="E8" t="n">
-        <v>1008.884140601386</v>
+        <v>299.1179299537353</v>
       </c>
       <c r="F8" t="n">
-        <v>597.8982358117785</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>182.1934855360673</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.593687005979</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1395.483980665508</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y8" t="n">
-        <v>1395.483980665508</v>
+        <v>1798.734238163263</v>
       </c>
     </row>
     <row r="9">
@@ -4877,34 +4877,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>620.8411572468201</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1604.003610415447</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1381.025129610183</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1091.90679211402</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1091.90679211402</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>802.4896220770598</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>802.4896220770598</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>802.4896220770598</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,40 +5053,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>631.7012443408952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408952</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408952</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429848</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1500.405126015259</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590557</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590557</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.280686761778</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>3062.606292977537</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3369.710724020923</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3997.30868757553</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>3997.30868757553</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>4420.931837070598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>633.4413279836774</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1053.171308869725</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>884.2351259418183</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>734.1184865294825</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E28" t="n">
-        <v>586.2053929470894</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F28" t="n">
-        <v>439.315445449179</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>272.119346164059</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.601903741512</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.612352843495</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1234.819773699965</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>782.8410298377091</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2238.060423687188</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.458958710129</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.383732054327</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1474.69924384844</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1185.282073811479</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1185.282073811479</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.4894946679489</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>696.7084350851671</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>527.7722521572603</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>377.6556127449245</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>878.3568999154069</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770319</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>634.334587849125</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D37" t="n">
-        <v>484.2179484367892</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E37" t="n">
-        <v>484.2179484367892</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F37" t="n">
-        <v>484.2179484367892</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072716</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7156,10 +7156,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7171,10 +7171,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075794</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,25 +7256,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>261.8464821474266</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="41">
@@ -7399,25 +7399,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253733</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7657,19 +7657,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8057,31 +8057,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>280.1079373569283</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883069305</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-5.661529149205321e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-5.661529149205321e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>-1.077743684667804e-12</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>31.77834493961549</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>4.845153664064242</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>85.9810369877376</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.3918499711701</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.26526345294985</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>45.04089287986319</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>27.76311574357379</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>40.58789941762424</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>112.2233770574204</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>40.64330621514753</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5874149221291134</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>19.85228889678916</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>144.5956654067399</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>38.5977558415262</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32.79125956324833</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856017.4546923236</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856017.4546923236</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>856017.4546923236</v>
+        <v>856017.4546923235</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.592262404</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516051</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752548</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="O2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26432,19 +26432,19 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732028</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731918</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731937</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731952</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26453,13 +26453,13 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.31242673194</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-746752.2731260231</v>
+        <v>-746752.2731260229</v>
       </c>
       <c r="C6" t="n">
-        <v>367999.5104498967</v>
+        <v>367999.5104498968</v>
       </c>
       <c r="D6" t="n">
-        <v>367999.5104498962</v>
+        <v>367999.510449897</v>
       </c>
       <c r="E6" t="n">
-        <v>-31543.99909993084</v>
+        <v>-31891.37835428781</v>
       </c>
       <c r="F6" t="n">
-        <v>475941.4425246152</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="G6" t="n">
-        <v>475941.4425246152</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="H6" t="n">
-        <v>475941.4425246157</v>
+        <v>475594.0632702587</v>
       </c>
       <c r="I6" t="n">
-        <v>475941.4425246154</v>
+        <v>475594.0632702584</v>
       </c>
       <c r="J6" t="n">
-        <v>308336.2647146326</v>
+        <v>307988.8854602756</v>
       </c>
       <c r="K6" t="n">
-        <v>475941.4425246154</v>
+        <v>475594.0632702585</v>
       </c>
       <c r="L6" t="n">
-        <v>475941.4425246153</v>
+        <v>475594.0632702583</v>
       </c>
       <c r="M6" t="n">
-        <v>343334.1487956884</v>
+        <v>342986.7695413315</v>
       </c>
       <c r="N6" t="n">
-        <v>475941.4425246152</v>
+        <v>475594.0632702582</v>
       </c>
       <c r="O6" t="n">
-        <v>475941.4425246154</v>
+        <v>475594.0632702582</v>
       </c>
       <c r="P6" t="n">
-        <v>475941.4425246153</v>
+        <v>475594.0632702584</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>325.1964746954152</v>
       </c>
       <c r="H2" t="n">
-        <v>167.180407121522</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.39020697792806</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>38.95208022449908</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>197.6494709225984</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>301.4644289320225</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,16 +27824,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>134.306064472105</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>173.0313165627906</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>237.0912332564923</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>53.81584707847221</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>162.5443757992782</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28860,7 +28860,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,25 +31205,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P12" t="n">
-        <v>307.4654529393634</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>697.0074482175629</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>452.3405299254388</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>302.967544750805</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>506.5895320981981</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>628.2482078836097</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33976,28 +33976,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>303.4297552732306</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34377,7 +34377,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159428</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
         <v>125.3175546292901</v>
@@ -34444,13 +34444,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>616.375287159485</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>577.7882979947786</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000391</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>528.7520287839581</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922432</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35032,7 +35032,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667036</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P12" t="n">
-        <v>173.4910455250332</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>565.6657361342296</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>310.2064960034205</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>160.8335108287866</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>368.0351523183239</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>485.6519634391653</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>330.3773834724255</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
         <v>632.079992146269</v>
@@ -37624,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,22 +37867,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>160.8335108287862</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193518</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>473.7790427150405</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2177005.339458724</v>
+        <v>2178765.869761509</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9712782.127173906</v>
+        <v>9712782.127173908</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>86.35122807753879</v>
+        <v>255.5604529134304</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -822,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>107.4818824220701</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>144.8586974472227</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>213.8982318503556</v>
+        <v>292.6108855078367</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3332554667399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>205.2240776919402</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>233.8447291789209</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>248.519753808911</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542793</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50.98074812542836</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>220.8645017249729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>110.1270172505057</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="21">
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>91.89996056624841</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>117.6579322793575</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790573</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>176.7621441121407</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,16 +3480,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>266.332185492455</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>27.77749086859546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>188.7692896015406</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>99.97427419833861</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1324.805867331309</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="C2" t="n">
-        <v>955.8433503908975</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="D2" t="n">
-        <v>597.5776517841471</v>
+        <v>768.4960607092901</v>
       </c>
       <c r="E2" t="n">
-        <v>211.7893991859028</v>
+        <v>382.7078081110458</v>
       </c>
       <c r="F2" t="n">
-        <v>204.8438984366994</v>
+        <v>375.7623073618424</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4327,7 +4327,7 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926625</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V2" t="n">
-        <v>2437.640120926625</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W2" t="n">
-        <v>2084.871465656511</v>
+        <v>1500.22751757712</v>
       </c>
       <c r="X2" t="n">
-        <v>1711.405707395431</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1711.405707395431</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>751.3310369968228</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>582.3948540689159</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>582.3948540689159</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
         <v>473.8272960668249</v>
@@ -4485,10 +4485,10 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4524,16 +4524,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X4" t="n">
-        <v>1153.772080970593</v>
+        <v>1490.124203461141</v>
       </c>
       <c r="Y4" t="n">
-        <v>932.9795018270626</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1113.627677512998</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="C5" t="n">
-        <v>744.6651605725865</v>
+        <v>757.7992423756275</v>
       </c>
       <c r="D5" t="n">
-        <v>744.6651605725865</v>
+        <v>757.7992423756275</v>
       </c>
       <c r="E5" t="n">
-        <v>744.6651605725865</v>
+        <v>757.7992423756275</v>
       </c>
       <c r="F5" t="n">
-        <v>333.6792557829789</v>
+        <v>346.8133375860199</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190805</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847234</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.22751757712</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.22751757712</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.22751757712</v>
+        <v>1126.761759316039</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4761,16 +4761,16 @@
         <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>850.6135643676971</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>622.6240134696798</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939397</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1412.134398099142</v>
+        <v>1201.12525314008</v>
       </c>
       <c r="C8" t="n">
-        <v>1043.17188115873</v>
+        <v>832.1627361996682</v>
       </c>
       <c r="D8" t="n">
-        <v>684.9061825519796</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="E8" t="n">
-        <v>299.1179299537353</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.755353087291</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="X8" t="n">
-        <v>2188.873570139075</v>
+        <v>1977.864425180013</v>
       </c>
       <c r="Y8" t="n">
-        <v>1798.734238163263</v>
+        <v>1587.725093204202</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H10" t="n">
-        <v>102.7424917452035</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -5001,13 +5001,13 @@
         <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
         <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,13 +5035,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
         <v>407.9027098310023</v>
@@ -5190,61 +5190,61 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258107</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.82229605222</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.405126015259</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2085.82313412342</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="17">
@@ -5509,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5746,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458823</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>527.7722521572603</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>379.8591585748671</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,25 +6922,25 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6955,19 +6955,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466572</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.58045691144</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C37" t="n">
-        <v>847.644273983533</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U37" t="n">
-        <v>1708.43867092217</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V37" t="n">
-        <v>1708.43867092217</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.02150088521</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.02150088521</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.22892174168</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.8412329032295</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2418.905011995821</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2016.448712673667</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1727.373486017864</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1472.688997811978</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W40" t="n">
-        <v>1183.271827775017</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X40" t="n">
-        <v>955.2822768769994</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.4896977334693</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998291</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>194.8007783998291</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
-        <v>54.95314511566528</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-5.661529149205321e-13</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-5.661529149205321e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>4.845153664064242</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>107.2784330767826</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>61.40075786968293</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>27.76311574357379</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>40.64330621514753</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,16 +25368,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>19.85228889678916</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>38.5977558415262</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>63.36835372228742</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>45.44677382459264</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>856017.4546923235</v>
+        <v>856017.4546923236</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="9">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>834644.5922624044</v>
+        <v>834644.5922624043</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834644.5922624043</v>
+        <v>834644.5922624042</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834644.5922624042</v>
+        <v>834644.5922624044</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516049</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516051</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516053</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516057</v>
-      </c>
       <c r="E2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26371,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26432,25 +26432,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
+        <v>8117.312426732028</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426732036</v>
+      </c>
+      <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="H4" t="n">
-        <v>8117.312426731952</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731918</v>
-      </c>
       <c r="J4" t="n">
-        <v>8117.312426731937</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731952</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732036</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26472,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-746752.2731260229</v>
       </c>
       <c r="C6" t="n">
-        <v>367999.5104498968</v>
+        <v>367999.5104498965</v>
       </c>
       <c r="D6" t="n">
-        <v>367999.510449897</v>
+        <v>367999.5104498966</v>
       </c>
       <c r="E6" t="n">
-        <v>-31891.37835428781</v>
+        <v>-31578.73702536583</v>
       </c>
       <c r="F6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991795</v>
       </c>
       <c r="G6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="H6" t="n">
-        <v>475594.0632702587</v>
+        <v>475906.7045991795</v>
       </c>
       <c r="I6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="J6" t="n">
-        <v>307988.8854602756</v>
+        <v>308301.5267891973</v>
       </c>
       <c r="K6" t="n">
-        <v>475594.0632702585</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="L6" t="n">
-        <v>475594.0632702583</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="M6" t="n">
-        <v>342986.7695413315</v>
+        <v>343299.4108702529</v>
       </c>
       <c r="N6" t="n">
-        <v>475594.0632702582</v>
+        <v>475906.7045991797</v>
       </c>
       <c r="O6" t="n">
-        <v>475594.0632702582</v>
+        <v>475906.7045991796</v>
       </c>
       <c r="P6" t="n">
-        <v>475594.0632702584</v>
+        <v>475906.7045991796</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26965,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241344</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>433.9106082241349</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>325.1964746954152</v>
+        <v>155.9872498595236</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27435,10 +27435,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>38.95208022449908</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>80.85095794181444</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>197.6494709225984</v>
+        <v>118.9368172651173</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.91356563188793</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>46.91356563188776</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>173.0313165627906</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>2.525496319550996</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>53.81584707847221</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="21">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>175.6052721551114</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34792,13 +34792,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>528.7520287839581</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>37.76383318075244</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
